--- a/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/FileUpload/Questions (1).xlsx
+++ b/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/FileUpload/Questions (1).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -50,6 +50,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>2+2</t>
   </si>
   <si>
@@ -137,13 +140,16 @@
     <t>aasdasd</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>1+1 + 2</t>
   </si>
   <si>
     <t>aaasdsa</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>ư</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,13 +243,13 @@
       <c r="F2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0">
-        <v>1</v>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -260,13 +266,13 @@
       <c r="F3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0">
-        <v>1</v>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -283,13 +289,13 @@
       <c r="F4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="0">
-        <v>1</v>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -306,169 +312,169 @@
       <c r="F5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="0">
-        <v>1</v>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="0">
-        <v>1</v>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="0">
-        <v>1</v>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="0">
-        <v>1</v>
+      <c r="G8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="0">
-        <v>1</v>
+      <c r="G9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="0">
-        <v>1</v>
+      <c r="G10" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="0">
-        <v>1</v>
+      <c r="G11" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="0">
-        <v>1</v>
+      <c r="G12" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -490,13 +496,13 @@
       <c r="F13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="0">
-        <v>1</v>
+      <c r="G13" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>8</v>
@@ -513,146 +519,146 @@
       <c r="F14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="0">
-        <v>1</v>
+      <c r="G14" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="0">
-        <v>1</v>
+      <c r="G15" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="0">
-        <v>1</v>
+      <c r="G16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="0">
-        <v>1</v>
+      <c r="G17" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="0">
-        <v>1</v>
+      <c r="G18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="F19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="0">
-        <v>1</v>
+      <c r="G19" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="0">
-        <v>1</v>
+      <c r="G20" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -660,22 +666,45 @@
         <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="0">
-        <v>1</v>
+      <c r="G21" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
